--- a/projects/quote-process-optimization/cwsell-users-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-users-matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meriplex-my.sharepoint.com/personal/ian_wheeler_meriplex_com/Documents/Documents/Obsidian/Meriplex/projects/quote-process-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{5A86E521-5A9F-47FF-A737-4B6378CA23F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDC01D0-4BA8-4B82-8ED6-57D2C274CAD3}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{5A86E521-5A9F-47FF-A737-4B6378CA23F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94F72E76-BC99-4A84-BA4B-AA2751F532F6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EA4793A-0F46-4650-8933-93D81CC36D3C}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{5EA4793A-0F46-4650-8933-93D81CC36D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Descriptions" sheetId="5" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2224,6 +2224,49 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2269,49 +2312,14 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="26" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2320,7 +2328,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2330,42 +2338,29 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
+          <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFCC99"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2451,29 +2446,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2489,25 +2465,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54F20A63-A7CD-42AA-9309-05444C0C6C02}" name="Table1" displayName="Table1" ref="A1:B38" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54F20A63-A7CD-42AA-9309-05444C0C6C02}" name="Table1" displayName="Table1" ref="A1:B38" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:B38" xr:uid="{54F20A63-A7CD-42AA-9309-05444C0C6C02}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{13DE862C-5226-48B0-8E16-02DAB8085DE0}" name="Field Label" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{130DD433-EE37-4E53-B5F2-E94E81A23758}" name="Description" dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{13DE862C-5226-48B0-8E16-02DAB8085DE0}" name="Field Label" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{130DD433-EE37-4E53-B5F2-E94E81A23758}" name="Description" dataDxfId="2" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7592D64-5680-47A9-8B91-D0D6A338BE81}" name="Table2" displayName="Table2" ref="A1:AP97" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:AP97" xr:uid="{E7592D64-5680-47A9-8B91-D0D6A338BE81}">
-    <filterColumn colId="3">
-      <colorFilter dxfId="1"/>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP95">
-    <sortCondition sortBy="cellColor" ref="D1:D95" dxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E7592D64-5680-47A9-8B91-D0D6A338BE81}" name="Table2" displayName="Table2" ref="A1:AP97" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AP97" xr:uid="{E7592D64-5680-47A9-8B91-D0D6A338BE81}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP97">
+    <sortCondition ref="B1:B97"/>
   </sortState>
   <tableColumns count="42">
     <tableColumn id="1" xr3:uid="{C5859BB3-B934-4F08-90E0-F1C0ED64FA59}" name="User Name"/>
@@ -2880,314 +2852,314 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="40.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7265625" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="6" customFormat="1" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:2" s="6" customFormat="1" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="31" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
         <v>362</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="24" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="22" t="s">
         <v>366</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26" t="s">
         <v>370</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="25" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="s">
         <v>373</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
         <v>376</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="24" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26" t="s">
         <v>381</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="24" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="27" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
         <v>388</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="24" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="22" t="s">
         <v>392</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="25" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="s">
         <v>357</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+    <row r="23" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="25" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
         <v>398</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
+    <row r="25" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="25" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
         <v>402</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="24" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="22" t="s">
         <v>406</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="23" t="s">
         <v>408</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="25" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="22" t="s">
         <v>410</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+    <row r="31" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="25" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="22" t="s">
         <v>414</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+    <row r="33" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="25" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="27" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+    <row r="35" spans="1:2" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="28" t="s">
         <v>420</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="27" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="65.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:2" ht="65.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="24" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:2" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="29" t="s">
         <v>426</v>
       </c>
     </row>
@@ -3219,56 +3191,56 @@
   <dimension ref="A1:AP97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+      <selection activeCell="A26" sqref="A26:AP26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="16" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>355</v>
       </c>
@@ -3396,1658 +3368,1691 @@
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B4" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C4" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D4" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-    </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="E4" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+    </row>
+    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="W6" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="AN6" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+    </row>
+    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
+      <c r="AK14" s="40"/>
+      <c r="AL14" s="40"/>
+      <c r="AM14" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="AN14" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO14" s="40"/>
+      <c r="AP14" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B17" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C17" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D17" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-    </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="E17" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+    </row>
+    <row r="18" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B19" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D19" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-    </row>
-    <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="E19" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="33"/>
+      <c r="AJ19" s="33"/>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="33"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="33"/>
+      <c r="AP19" s="34"/>
+    </row>
+    <row r="20" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+    </row>
+    <row r="26" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="37"/>
+      <c r="AM26" s="37"/>
+      <c r="AN26" s="37"/>
+      <c r="AO26" s="37"/>
+      <c r="AP26" s="37"/>
+    </row>
+    <row r="27" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="W28" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="X28" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="AN28" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56"/>
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+    </row>
+    <row r="39" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E40" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+      <c r="AM40" s="36"/>
+      <c r="AN40" s="36"/>
+      <c r="AO40" s="36"/>
+      <c r="AP40" s="36"/>
+    </row>
+    <row r="41" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B41" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D41" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-    </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="49"/>
-      <c r="AJ6" s="49"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-      <c r="AM6" s="49"/>
-      <c r="AN6" s="49"/>
-      <c r="AO6" s="49"/>
-      <c r="AP6" s="49"/>
-    </row>
-    <row r="7" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="49"/>
-      <c r="AI7" s="49"/>
-      <c r="AJ7" s="49"/>
-      <c r="AK7" s="49"/>
-      <c r="AL7" s="49"/>
-      <c r="AM7" s="49"/>
-      <c r="AN7" s="49"/>
-      <c r="AO7" s="49"/>
-      <c r="AP7" s="49"/>
-    </row>
-    <row r="8" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="S11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="V11" s="53" t="s">
+      <c r="E41" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+      <c r="Y41" s="34"/>
+      <c r="Z41" s="34"/>
+      <c r="AA41" s="34"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
+      <c r="AD41" s="34"/>
+      <c r="AE41" s="34"/>
+      <c r="AF41" s="34"/>
+      <c r="AG41" s="34"/>
+      <c r="AH41" s="34"/>
+      <c r="AI41" s="34"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="34"/>
+      <c r="AM41" s="34"/>
+      <c r="AN41" s="34"/>
+      <c r="AO41" s="34"/>
+      <c r="AP41" s="34"/>
+    </row>
+    <row r="42" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="W11" s="54" t="s">
+      <c r="W43" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="X11" s="47" t="s">
+      <c r="X43" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47" t="s">
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="47"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="47" t="s">
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="AN11" s="47" t="s">
+      <c r="AN43" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="AO11" s="47"/>
-      <c r="AP11" s="47" t="s">
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="N13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51"/>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-    </row>
-    <row r="18" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="53" t="s">
+    <row r="44" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="W19" s="54" t="s">
+      <c r="W47" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="X19" s="47" t="s">
+      <c r="X47" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="47" t="s">
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50"/>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="47" t="s">
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32"/>
+      <c r="AM47" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="AN19" s="47" t="s">
+      <c r="AN47" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="47" t="s">
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="48" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="W30" s="54" t="s">
-        <v>541</v>
-      </c>
-      <c r="X30" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="AN30" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="31" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B35" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="N37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>181</v>
-      </c>
-      <c r="B38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="51"/>
-      <c r="AP40" s="51"/>
-    </row>
-    <row r="41" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="W44" s="54" t="s">
-        <v>541</v>
-      </c>
-      <c r="X44" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="47"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="47"/>
-      <c r="AL44" s="47"/>
-      <c r="AM44" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="AN44" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="AO44" s="47"/>
-      <c r="AP44" s="47" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" t="s">
-        <v>204</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" t="s">
-        <v>206</v>
-      </c>
-      <c r="C47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" t="s">
-        <v>208</v>
-      </c>
-      <c r="E47" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="W48" s="54" t="s">
-        <v>541</v>
-      </c>
-      <c r="X48" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y48" s="47"/>
-      <c r="Z48" s="47"/>
-      <c r="AA48" s="47"/>
-      <c r="AB48" s="47"/>
-      <c r="AC48" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="AD48" s="47"/>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47"/>
-      <c r="AG48" s="47"/>
-      <c r="AH48" s="47"/>
-      <c r="AI48" s="47"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="47"/>
-      <c r="AL48" s="47"/>
-      <c r="AM48" s="47" t="s">
-        <v>544</v>
-      </c>
-      <c r="AN48" s="47" t="s">
-        <v>545</v>
-      </c>
-      <c r="AO48" s="47"/>
-      <c r="AP48" s="47" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -5059,18 +5064,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
         <v>213</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -5082,118 +5087,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>215</v>
-      </c>
-      <c r="B51" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" t="s">
-        <v>217</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+    <row r="51" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B51" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C51" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D51" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="53" t="s">
+      <c r="E51" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="W52" s="54" t="s">
+      <c r="W51" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="X52" s="47" t="s">
+      <c r="X51" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="Y52" s="47"/>
-      <c r="Z52" s="47"/>
-      <c r="AA52" s="47"/>
-      <c r="AB52" s="47"/>
-      <c r="AC52" s="47" t="s">
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="AD52" s="47"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47"/>
-      <c r="AG52" s="47"/>
-      <c r="AH52" s="47"/>
-      <c r="AI52" s="47"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="47"/>
-      <c r="AL52" s="47"/>
-      <c r="AM52" s="47" t="s">
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
+      <c r="AK51" s="32"/>
+      <c r="AL51" s="32"/>
+      <c r="AM51" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="AN52" s="47" t="s">
+      <c r="AN51" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="AO52" s="47"/>
-      <c r="AP52" s="47" t="s">
+      <c r="AO51" s="32"/>
+      <c r="AP51" s="32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
@@ -5202,18 +5207,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -5225,18 +5230,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C55" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -5248,41 +5253,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>232</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -5294,162 +5299,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="N58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+    <row r="58" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B58" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C58" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="51" t="s">
+      <c r="D58" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="E59" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="51"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O59" s="51"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="51"/>
-      <c r="R59" s="51"/>
-      <c r="S59" s="51"/>
-      <c r="T59" s="51"/>
-      <c r="U59" s="51"/>
-      <c r="V59" s="51"/>
-      <c r="W59" s="51"/>
-      <c r="X59" s="51"/>
-      <c r="Y59" s="51"/>
-      <c r="Z59" s="51"/>
-      <c r="AA59" s="51"/>
-      <c r="AB59" s="51"/>
-      <c r="AC59" s="51"/>
-      <c r="AD59" s="51"/>
-      <c r="AE59" s="51"/>
-      <c r="AF59" s="51"/>
-      <c r="AG59" s="51"/>
-      <c r="AH59" s="51"/>
-      <c r="AI59" s="51"/>
-      <c r="AJ59" s="51"/>
-      <c r="AK59" s="51"/>
-      <c r="AL59" s="51"/>
-      <c r="AM59" s="51"/>
-      <c r="AN59" s="51"/>
-      <c r="AO59" s="51"/>
-      <c r="AP59" s="51"/>
-    </row>
-    <row r="60" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47" t="s">
+      <c r="E58" s="56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="56"/>
+      <c r="AJ58" s="56"/>
+      <c r="AK58" s="56"/>
+      <c r="AL58" s="56"/>
+      <c r="AM58" s="56"/>
+      <c r="AN58" s="56"/>
+      <c r="AO58" s="56"/>
+      <c r="AP58" s="56"/>
+    </row>
+    <row r="59" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B59" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C59" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="D60" s="47" t="s">
+      <c r="D59" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E60" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="53" t="s">
+      <c r="E59" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="58" t="s">
         <v>540</v>
       </c>
-      <c r="W60" s="54" t="s">
+      <c r="W59" s="59" t="s">
         <v>541</v>
       </c>
-      <c r="X60" s="47" t="s">
+      <c r="X59" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="Y60" s="47"/>
-      <c r="Z60" s="47"/>
-      <c r="AA60" s="47"/>
-      <c r="AB60" s="47"/>
-      <c r="AC60" s="47" t="s">
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="AD60" s="47"/>
-      <c r="AE60" s="47"/>
-      <c r="AF60" s="47"/>
-      <c r="AG60" s="47"/>
-      <c r="AH60" s="47"/>
-      <c r="AI60" s="47"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="47"/>
-      <c r="AL60" s="47"/>
-      <c r="AM60" s="47" t="s">
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+      <c r="AJ59" s="35"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="35"/>
+      <c r="AM59" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="AN60" s="47" t="s">
+      <c r="AN59" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="AO60" s="47"/>
-      <c r="AP60" s="47" t="s">
+      <c r="AO59" s="35"/>
+      <c r="AP59" s="35" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="E60" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="34"/>
+      <c r="T60" s="34"/>
+      <c r="U60" s="34"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="34"/>
+      <c r="Y60" s="34"/>
+      <c r="Z60" s="34"/>
+      <c r="AA60" s="34"/>
+      <c r="AB60" s="34"/>
+      <c r="AC60" s="34"/>
+      <c r="AD60" s="34"/>
+      <c r="AE60" s="34"/>
+      <c r="AF60" s="34"/>
+      <c r="AG60" s="34"/>
+      <c r="AH60" s="34"/>
+      <c r="AI60" s="34"/>
+      <c r="AJ60" s="34"/>
+      <c r="AK60" s="34"/>
+      <c r="AL60" s="34"/>
+      <c r="AM60" s="34"/>
+      <c r="AN60" s="34"/>
+      <c r="AO60" s="34"/>
+      <c r="AP60" s="34"/>
+    </row>
+    <row r="61" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>246</v>
       </c>
@@ -5472,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>250</v>
       </c>
@@ -5495,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -5518,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>258</v>
       </c>
@@ -5541,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>262</v>
       </c>
@@ -5564,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>266</v>
       </c>
@@ -5587,81 +5629,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="47" t="s">
+    <row r="67" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="C67" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="47" t="s">
+      <c r="C67" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="E67" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="53" t="s">
+      <c r="E67" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="32"/>
+      <c r="V67" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="W67" s="54" t="s">
+      <c r="W67" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="X67" s="47" t="s">
+      <c r="X67" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="Y67" s="47"/>
-      <c r="Z67" s="47"/>
-      <c r="AA67" s="47"/>
-      <c r="AB67" s="47"/>
-      <c r="AC67" s="47" t="s">
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32"/>
+      <c r="AA67" s="32"/>
+      <c r="AB67" s="32"/>
+      <c r="AC67" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="AD67" s="47"/>
-      <c r="AE67" s="47"/>
-      <c r="AF67" s="47"/>
-      <c r="AG67" s="47"/>
-      <c r="AH67" s="47"/>
-      <c r="AI67" s="47"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="47"/>
-      <c r="AL67" s="47"/>
-      <c r="AM67" s="47" t="s">
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="32"/>
+      <c r="AF67" s="32"/>
+      <c r="AG67" s="32"/>
+      <c r="AH67" s="32"/>
+      <c r="AI67" s="32"/>
+      <c r="AJ67" s="32"/>
+      <c r="AK67" s="32"/>
+      <c r="AL67" s="32"/>
+      <c r="AM67" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="AN67" s="47" t="s">
+      <c r="AN67" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="AO67" s="47"/>
-      <c r="AP67" s="47" t="s">
+      <c r="AO67" s="32"/>
+      <c r="AP67" s="32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -5684,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>276</v>
       </c>
@@ -5707,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>280</v>
       </c>
@@ -5730,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>284</v>
       </c>
@@ -5753,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -5776,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>292</v>
       </c>
@@ -5799,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -5822,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>296</v>
       </c>
@@ -5845,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>300</v>
       </c>
@@ -5868,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>304</v>
       </c>
@@ -5891,670 +5933,670 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="51" t="s">
+    <row r="78" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E78" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="51"/>
-      <c r="V78" s="51"/>
-      <c r="W78" s="51"/>
-      <c r="X78" s="51"/>
-      <c r="Y78" s="51"/>
-      <c r="Z78" s="51"/>
-      <c r="AA78" s="51"/>
-      <c r="AB78" s="51"/>
-      <c r="AC78" s="51"/>
-      <c r="AD78" s="51"/>
-      <c r="AE78" s="51"/>
-      <c r="AF78" s="51"/>
-      <c r="AG78" s="51"/>
-      <c r="AH78" s="51"/>
-      <c r="AI78" s="51"/>
-      <c r="AJ78" s="51"/>
-      <c r="AK78" s="51"/>
-      <c r="AL78" s="51"/>
-      <c r="AM78" s="51"/>
-      <c r="AN78" s="51"/>
-      <c r="AO78" s="51"/>
-      <c r="AP78" s="51"/>
-    </row>
-    <row r="79" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="47" t="s">
+      <c r="E78" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="36"/>
+      <c r="AA78" s="36"/>
+      <c r="AB78" s="36"/>
+      <c r="AC78" s="36"/>
+      <c r="AD78" s="36"/>
+      <c r="AE78" s="36"/>
+      <c r="AF78" s="36"/>
+      <c r="AG78" s="36"/>
+      <c r="AH78" s="36"/>
+      <c r="AI78" s="36"/>
+      <c r="AJ78" s="36"/>
+      <c r="AK78" s="36"/>
+      <c r="AL78" s="36"/>
+      <c r="AM78" s="36"/>
+      <c r="AN78" s="36"/>
+      <c r="AO78" s="36"/>
+      <c r="AP78" s="36"/>
+    </row>
+    <row r="79" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="34"/>
+      <c r="P79" s="34"/>
+      <c r="Q79" s="34"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="34"/>
+      <c r="T79" s="34"/>
+      <c r="U79" s="34"/>
+      <c r="V79" s="34"/>
+      <c r="W79" s="34"/>
+      <c r="X79" s="34"/>
+      <c r="Y79" s="34"/>
+      <c r="Z79" s="34"/>
+      <c r="AA79" s="34"/>
+      <c r="AB79" s="34"/>
+      <c r="AC79" s="34"/>
+      <c r="AD79" s="34"/>
+      <c r="AE79" s="34"/>
+      <c r="AF79" s="34"/>
+      <c r="AG79" s="34"/>
+      <c r="AH79" s="34"/>
+      <c r="AI79" s="34"/>
+      <c r="AJ79" s="34"/>
+      <c r="AK79" s="34"/>
+      <c r="AL79" s="34"/>
+      <c r="AM79" s="34"/>
+      <c r="AN79" s="34"/>
+      <c r="AO79" s="34"/>
+      <c r="AP79" s="34"/>
+    </row>
+    <row r="80" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="E80" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="37"/>
+      <c r="AA80" s="37"/>
+      <c r="AB80" s="37"/>
+      <c r="AC80" s="37"/>
+      <c r="AD80" s="37"/>
+      <c r="AE80" s="37"/>
+      <c r="AF80" s="37"/>
+      <c r="AG80" s="37"/>
+      <c r="AH80" s="37"/>
+      <c r="AI80" s="37"/>
+      <c r="AJ80" s="37"/>
+      <c r="AK80" s="37"/>
+      <c r="AL80" s="37"/>
+      <c r="AM80" s="37"/>
+      <c r="AN80" s="37"/>
+      <c r="AO80" s="37"/>
+      <c r="AP80" s="37"/>
+    </row>
+    <row r="81" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B81" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C81" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D81" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E79" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" s="47"/>
-      <c r="G79" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="47"/>
-      <c r="K79" s="47"/>
-      <c r="L79" s="47"/>
-      <c r="M79" s="47"/>
-      <c r="N79" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O79" s="47"/>
-      <c r="P79" s="47"/>
-      <c r="Q79" s="47"/>
-      <c r="R79" s="47"/>
-      <c r="S79" s="47"/>
-      <c r="T79" s="47"/>
-      <c r="U79" s="47"/>
-      <c r="V79" s="53" t="s">
+      <c r="E81" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
+      <c r="U81" s="32"/>
+      <c r="V81" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="W79" s="54" t="s">
+      <c r="W81" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="X79" s="47" t="s">
+      <c r="X81" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="Y79" s="47"/>
-      <c r="Z79" s="47"/>
-      <c r="AA79" s="47"/>
-      <c r="AB79" s="47"/>
-      <c r="AC79" s="47" t="s">
+      <c r="Y81" s="32"/>
+      <c r="Z81" s="32"/>
+      <c r="AA81" s="32"/>
+      <c r="AB81" s="32"/>
+      <c r="AC81" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="AD79" s="47"/>
-      <c r="AE79" s="47"/>
-      <c r="AF79" s="47"/>
-      <c r="AG79" s="47"/>
-      <c r="AH79" s="47"/>
-      <c r="AI79" s="47"/>
-      <c r="AJ79" s="47"/>
-      <c r="AK79" s="47"/>
-      <c r="AL79" s="47"/>
-      <c r="AM79" s="47" t="s">
+      <c r="AD81" s="32"/>
+      <c r="AE81" s="32"/>
+      <c r="AF81" s="32"/>
+      <c r="AG81" s="32"/>
+      <c r="AH81" s="32"/>
+      <c r="AI81" s="32"/>
+      <c r="AJ81" s="32"/>
+      <c r="AK81" s="32"/>
+      <c r="AL81" s="32"/>
+      <c r="AM81" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="AN79" s="47" t="s">
+      <c r="AN81" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="AO79" s="47"/>
-      <c r="AP79" s="47" t="s">
+      <c r="AO81" s="32"/>
+      <c r="AP81" s="32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="80" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="82" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>312</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>313</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>314</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>315</v>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="N80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>316</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" t="s">
         <v>313</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>314</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D83" t="s">
         <v>317</v>
       </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="N81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>318</v>
-      </c>
-      <c r="B82" t="s">
-        <v>319</v>
-      </c>
-      <c r="C82" t="s">
-        <v>320</v>
-      </c>
-      <c r="D82" t="s">
-        <v>321</v>
-      </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="N82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>322</v>
-      </c>
-      <c r="B83" t="s">
-        <v>319</v>
-      </c>
-      <c r="C83" t="s">
-        <v>323</v>
-      </c>
-      <c r="D83" t="s">
-        <v>324</v>
-      </c>
-      <c r="E83" t="b">
-        <v>1</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="N83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>325</v>
       </c>
       <c r="B84" t="s">
         <v>319</v>
       </c>
       <c r="C84" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" t="s">
+        <v>321</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>322</v>
+      </c>
+      <c r="B85" t="s">
+        <v>319</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="N85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" t="s">
         <v>326</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>327</v>
       </c>
-      <c r="E84" t="b">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="N84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="47" t="s">
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="N86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="B85" s="47" t="s">
+      <c r="B87" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="C85" s="47" t="s">
+      <c r="C87" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D87" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="E85" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" s="47"/>
-      <c r="I85" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" s="47"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="47"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
-      <c r="Q85" s="47"/>
-      <c r="R85" s="47"/>
-      <c r="S85" s="47"/>
-      <c r="T85" s="47"/>
-      <c r="U85" s="47"/>
-      <c r="V85" s="53" t="s">
+      <c r="E87" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="32"/>
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" s="32"/>
+      <c r="P87" s="32"/>
+      <c r="Q87" s="32"/>
+      <c r="R87" s="32"/>
+      <c r="S87" s="32"/>
+      <c r="T87" s="32"/>
+      <c r="U87" s="32"/>
+      <c r="V87" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="W85" s="54" t="s">
+      <c r="W87" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="X85" s="47" t="s">
+      <c r="X87" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="Y85" s="47"/>
-      <c r="Z85" s="47"/>
-      <c r="AA85" s="47"/>
-      <c r="AB85" s="47"/>
-      <c r="AC85" s="47" t="s">
+      <c r="Y87" s="32"/>
+      <c r="Z87" s="32"/>
+      <c r="AA87" s="32"/>
+      <c r="AB87" s="32"/>
+      <c r="AC87" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="AD85" s="47"/>
-      <c r="AE85" s="47"/>
-      <c r="AF85" s="47"/>
-      <c r="AG85" s="47"/>
-      <c r="AH85" s="47"/>
-      <c r="AI85" s="47"/>
-      <c r="AJ85" s="47"/>
-      <c r="AK85" s="47"/>
-      <c r="AL85" s="47"/>
-      <c r="AM85" s="47" t="s">
+      <c r="AD87" s="32"/>
+      <c r="AE87" s="32"/>
+      <c r="AF87" s="32"/>
+      <c r="AG87" s="32"/>
+      <c r="AH87" s="32"/>
+      <c r="AI87" s="32"/>
+      <c r="AJ87" s="32"/>
+      <c r="AK87" s="32"/>
+      <c r="AL87" s="32"/>
+      <c r="AM87" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="AN85" s="47" t="s">
+      <c r="AN87" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="AO85" s="47"/>
-      <c r="AP85" s="47" t="s">
+      <c r="AO87" s="32"/>
+      <c r="AP87" s="32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="86" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>332</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>333</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>334</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>335</v>
       </c>
-      <c r="E86" t="b">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="N86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="N88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>336</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>337</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>338</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>339</v>
       </c>
-      <c r="E87" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="N87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="N89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>340</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>341</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>342</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>343</v>
       </c>
-      <c r="E88" t="b">
-        <v>1</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="N88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="N90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>344</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>341</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>345</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>346</v>
       </c>
-      <c r="E89" t="b">
-        <v>1</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="N89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="N91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>347</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>348</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>349</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>350</v>
       </c>
-      <c r="E90" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="N90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="N92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>351</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>352</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>353</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>354</v>
       </c>
-      <c r="E91" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="N91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="N93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>82</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>83</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>84</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>85</v>
       </c>
-      <c r="E92" t="b">
-        <v>1</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="N92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>86</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>87</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>88</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>89</v>
       </c>
-      <c r="E93" t="b">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="N93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:42" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>90</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>91</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>92</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>93</v>
       </c>
-      <c r="E94" t="b">
-        <v>1</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="N94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="N95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="52" t="s">
-        <v>538</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>537</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="D96" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="E96" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="F96" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G96" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="52"/>
-      <c r="K96" s="52"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="52"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="52"/>
-      <c r="R96" s="52"/>
-      <c r="S96" s="52"/>
-      <c r="T96" s="52"/>
-      <c r="U96" s="52"/>
-      <c r="V96" s="52"/>
-      <c r="W96" s="52"/>
-      <c r="X96" s="52"/>
-      <c r="Y96" s="52"/>
-      <c r="Z96" s="52"/>
-      <c r="AA96" s="52"/>
-      <c r="AB96" s="52"/>
-      <c r="AC96" s="52"/>
-      <c r="AD96" s="52"/>
-      <c r="AE96" s="52"/>
-      <c r="AF96" s="52"/>
-      <c r="AG96" s="52"/>
-      <c r="AH96" s="52"/>
-      <c r="AI96" s="52"/>
-      <c r="AJ96" s="52"/>
-      <c r="AK96" s="52"/>
-      <c r="AL96" s="52"/>
-      <c r="AM96" s="52"/>
-      <c r="AN96" s="52"/>
-      <c r="AO96" s="52"/>
-      <c r="AP96" s="52"/>
-    </row>
-    <row r="97" spans="1:42" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="52" t="s">
-        <v>539</v>
-      </c>
-      <c r="B97" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E97" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G97" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" s="52"/>
-      <c r="I97" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="52"/>
-      <c r="K97" s="52"/>
-      <c r="L97" s="52"/>
-      <c r="M97" s="52"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="52"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="52"/>
-      <c r="R97" s="52"/>
-      <c r="S97" s="52"/>
-      <c r="T97" s="52"/>
-      <c r="U97" s="52"/>
-      <c r="V97" s="52"/>
-      <c r="W97" s="52"/>
-      <c r="X97" s="52"/>
-      <c r="Y97" s="52"/>
-      <c r="Z97" s="52"/>
-      <c r="AA97" s="52"/>
-      <c r="AB97" s="52"/>
-      <c r="AC97" s="52"/>
-      <c r="AD97" s="52"/>
-      <c r="AE97" s="52"/>
-      <c r="AF97" s="52"/>
-      <c r="AG97" s="52"/>
-      <c r="AH97" s="52"/>
-      <c r="AI97" s="52"/>
-      <c r="AJ97" s="52"/>
-      <c r="AK97" s="52"/>
-      <c r="AL97" s="52"/>
-      <c r="AM97" s="52"/>
-      <c r="AN97" s="52"/>
-      <c r="AO97" s="52"/>
-      <c r="AP97" s="52"/>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6572,39 +6614,39 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="46"/>
+      <c r="B2" s="48"/>
       <c r="C2" s="7" t="s">
         <v>437</v>
       </c>
@@ -6627,8 +6669,8 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>443</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -6656,8 +6698,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="53"/>
       <c r="B4" s="13" t="s">
         <v>446</v>
       </c>
@@ -6683,8 +6725,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="53"/>
       <c r="B5" s="13" t="s">
         <v>447</v>
       </c>
@@ -6698,8 +6740,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="53"/>
       <c r="B6" s="13" t="s">
         <v>448</v>
       </c>
@@ -6717,8 +6759,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="53"/>
       <c r="B7" s="13" t="s">
         <v>449</v>
       </c>
@@ -6736,8 +6778,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="53"/>
       <c r="B8" s="13" t="s">
         <v>450</v>
       </c>
@@ -6751,8 +6793,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="53"/>
       <c r="B9" s="13" t="s">
         <v>451</v>
       </c>
@@ -6768,8 +6810,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="53"/>
       <c r="B10" s="13" t="s">
         <v>452</v>
       </c>
@@ -6795,8 +6837,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="53"/>
       <c r="B11" s="13" t="s">
         <v>453</v>
       </c>
@@ -6822,8 +6864,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="53"/>
       <c r="B12" s="13" t="s">
         <v>454</v>
       </c>
@@ -6839,8 +6881,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="53"/>
       <c r="B13" s="13" t="s">
         <v>455</v>
       </c>
@@ -6854,8 +6896,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="53"/>
       <c r="B14" s="13" t="s">
         <v>456</v>
       </c>
@@ -6869,8 +6911,8 @@
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="53"/>
       <c r="B15" s="13" t="s">
         <v>457</v>
       </c>
@@ -6884,8 +6926,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="53"/>
       <c r="B16" s="13" t="s">
         <v>458</v>
       </c>
@@ -6899,8 +6941,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="53"/>
       <c r="B17" s="13" t="s">
         <v>459</v>
       </c>
@@ -6926,8 +6968,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="53"/>
       <c r="B18" s="13" t="s">
         <v>460</v>
       </c>
@@ -6953,8 +6995,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="53"/>
       <c r="B19" s="13" t="s">
         <v>461</v>
       </c>
@@ -6980,8 +7022,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="53"/>
       <c r="B20" s="13" t="s">
         <v>462</v>
       </c>
@@ -7001,8 +7043,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="53"/>
       <c r="B21" s="13" t="s">
         <v>463</v>
       </c>
@@ -7016,8 +7058,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
       <c r="B22" s="13" t="s">
         <v>464</v>
       </c>
@@ -7043,8 +7085,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="53"/>
       <c r="B23" s="13" t="s">
         <v>465</v>
       </c>
@@ -7058,8 +7100,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="53"/>
       <c r="B24" s="13" t="s">
         <v>466</v>
       </c>
@@ -7085,8 +7127,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
       <c r="B25" s="13" t="s">
         <v>467</v>
       </c>
@@ -7112,8 +7154,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="53"/>
       <c r="B26" s="13" t="s">
         <v>468</v>
       </c>
@@ -7129,8 +7171,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="53"/>
       <c r="B27" s="13" t="s">
         <v>469</v>
       </c>
@@ -7146,8 +7188,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="53"/>
       <c r="B28" s="13" t="s">
         <v>470</v>
       </c>
@@ -7163,8 +7205,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="53"/>
       <c r="B29" s="13" t="s">
         <v>471</v>
       </c>
@@ -7190,8 +7232,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="53"/>
       <c r="B30" s="13" t="s">
         <v>472</v>
       </c>
@@ -7217,8 +7259,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="53"/>
       <c r="B31" s="13" t="s">
         <v>473</v>
       </c>
@@ -7232,8 +7274,8 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="53"/>
       <c r="B32" s="14" t="s">
         <v>474</v>
       </c>
@@ -7247,8 +7289,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="53"/>
       <c r="B33" s="13" t="s">
         <v>475</v>
       </c>
@@ -7262,8 +7304,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="53"/>
       <c r="B34" s="13" t="s">
         <v>476</v>
       </c>
@@ -7289,8 +7331,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="53"/>
       <c r="B35" s="13" t="s">
         <v>477</v>
       </c>
@@ -7316,8 +7358,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="53"/>
       <c r="B36" s="13" t="s">
         <v>478</v>
       </c>
@@ -7343,8 +7385,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="53"/>
       <c r="B37" s="13" t="s">
         <v>479</v>
       </c>
@@ -7356,8 +7398,8 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="53"/>
       <c r="B38" s="13" t="s">
         <v>480</v>
       </c>
@@ -7369,8 +7411,8 @@
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="54"/>
       <c r="B39" s="13" t="s">
         <v>481</v>
       </c>
@@ -7396,8 +7438,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="52" t="s">
         <v>482</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -7413,8 +7455,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="53"/>
       <c r="B41" s="13" t="s">
         <v>484</v>
       </c>
@@ -7428,8 +7470,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="53"/>
       <c r="B42" s="15" t="s">
         <v>485</v>
       </c>
@@ -7455,8 +7497,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="52" t="s">
         <v>486</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -7484,8 +7526,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="53"/>
       <c r="B44" s="13" t="s">
         <v>488</v>
       </c>
@@ -7499,8 +7541,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="55"/>
       <c r="B45" s="13" t="s">
         <v>489</v>
       </c>
@@ -7514,8 +7556,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="41" t="s">
         <v>490</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -7543,8 +7585,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="42"/>
       <c r="B47" s="13" t="s">
         <v>492</v>
       </c>
@@ -7570,8 +7612,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="42"/>
       <c r="B48" s="13" t="s">
         <v>493</v>
       </c>
@@ -7597,8 +7639,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="42"/>
       <c r="B49" s="13" t="s">
         <v>494</v>
       </c>
@@ -7624,8 +7666,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="42"/>
       <c r="B50" s="13" t="s">
         <v>495</v>
       </c>
@@ -7651,8 +7693,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="42"/>
       <c r="B51" s="13" t="s">
         <v>496</v>
       </c>
@@ -7678,8 +7720,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="42"/>
       <c r="B52" s="13" t="s">
         <v>497</v>
       </c>
@@ -7705,8 +7747,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="42"/>
       <c r="B53" s="13" t="s">
         <v>498</v>
       </c>
@@ -7720,8 +7762,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="42"/>
       <c r="B54" s="13" t="s">
         <v>499</v>
       </c>
@@ -7747,8 +7789,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="43"/>
       <c r="B55" s="13" t="s">
         <v>500</v>
       </c>
@@ -7774,8 +7816,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="41" t="s">
         <v>501</v>
       </c>
       <c r="B56" s="12" t="s">
@@ -7791,8 +7833,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="42"/>
       <c r="B57" s="13" t="s">
         <v>503</v>
       </c>
@@ -7806,8 +7848,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="42"/>
       <c r="B58" s="13" t="s">
         <v>504</v>
       </c>
@@ -7823,8 +7865,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="42"/>
       <c r="B59" s="13" t="s">
         <v>505</v>
       </c>
@@ -7840,8 +7882,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="42"/>
       <c r="B60" s="13" t="s">
         <v>506</v>
       </c>
@@ -7855,8 +7897,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="42"/>
       <c r="B61" s="13" t="s">
         <v>507</v>
       </c>
@@ -7870,8 +7912,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="42"/>
       <c r="B62" s="13" t="s">
         <v>508</v>
       </c>
@@ -7887,8 +7929,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="42"/>
       <c r="B63" s="13" t="s">
         <v>509</v>
       </c>
@@ -7902,8 +7944,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="42"/>
       <c r="B64" s="13" t="s">
         <v>510</v>
       </c>
@@ -7917,8 +7959,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="42"/>
       <c r="B65" s="13" t="s">
         <v>511</v>
       </c>
@@ -7942,8 +7984,8 @@
       </c>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="42"/>
       <c r="B66" s="13" t="s">
         <v>512</v>
       </c>
@@ -7957,8 +7999,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="42"/>
       <c r="B67" s="13" t="s">
         <v>513</v>
       </c>
@@ -7984,8 +8026,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="42"/>
       <c r="B68" s="13" t="s">
         <v>514</v>
       </c>
@@ -8001,8 +8043,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="42"/>
       <c r="B69" s="13" t="s">
         <v>515</v>
       </c>
@@ -8016,8 +8058,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="42"/>
       <c r="B70" s="13" t="s">
         <v>516</v>
       </c>
@@ -8033,8 +8075,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="42"/>
       <c r="B71" s="13" t="s">
         <v>517</v>
       </c>
@@ -8048,8 +8090,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="42"/>
       <c r="B72" s="13" t="s">
         <v>518</v>
       </c>
@@ -8063,8 +8105,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="42"/>
       <c r="B73" s="13" t="s">
         <v>519</v>
       </c>
@@ -8078,8 +8120,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="42"/>
       <c r="B74" s="13" t="s">
         <v>520</v>
       </c>
@@ -8095,8 +8137,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="42"/>
       <c r="B75" s="13" t="s">
         <v>521</v>
       </c>
@@ -8110,8 +8152,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="42"/>
       <c r="B76" s="13" t="s">
         <v>522</v>
       </c>
@@ -8125,8 +8167,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="42"/>
       <c r="B77" s="13" t="s">
         <v>523</v>
       </c>
@@ -8142,8 +8184,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="42"/>
       <c r="B78" s="13" t="s">
         <v>524</v>
       </c>
@@ -8159,8 +8201,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="42"/>
       <c r="B79" s="13" t="s">
         <v>525</v>
       </c>
@@ -8176,8 +8218,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="42"/>
       <c r="B80" s="13" t="s">
         <v>526</v>
       </c>
@@ -8193,8 +8235,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="42"/>
       <c r="B81" s="13" t="s">
         <v>527</v>
       </c>
@@ -8220,8 +8262,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="42"/>
       <c r="B82" s="13" t="s">
         <v>528</v>
       </c>
@@ -8235,8 +8277,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="42"/>
       <c r="B83" s="13" t="s">
         <v>529</v>
       </c>
@@ -8250,8 +8292,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="42"/>
       <c r="B84" s="13" t="s">
         <v>530</v>
       </c>
@@ -8277,8 +8319,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="42"/>
       <c r="B85" s="13" t="s">
         <v>531</v>
       </c>
@@ -8292,8 +8334,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="42"/>
       <c r="B86" s="13" t="s">
         <v>532</v>
       </c>
@@ -8307,8 +8349,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="42"/>
       <c r="B87" s="13" t="s">
         <v>533</v>
       </c>
@@ -8324,8 +8366,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="44"/>
       <c r="B88" s="15" t="s">
         <v>534</v>
       </c>
